--- a/bd/02RegistrosEntidadesAtributos.xlsx
+++ b/bd/02RegistrosEntidadesAtributos.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonmircha/Dropbox/Dev/amerike-so/bd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F8EEF16-C1E5-7541-A70A-0AD23D3616E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963BDD24-AB76-C547-93A3-B8454467FA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="-19620" windowWidth="32340" windowHeight="17220" xr2:uid="{5134B287-0B9C-B647-870C-31C76CE5C862}"/>
+    <workbookView xWindow="4060" yWindow="-19240" windowWidth="32340" windowHeight="17220" xr2:uid="{5134B287-0B9C-B647-870C-31C76CE5C862}"/>
   </bookViews>
   <sheets>
-    <sheet name="Clientes" sheetId="1" r:id="rId1"/>
-    <sheet name="Productos" sheetId="2" r:id="rId2"/>
-    <sheet name="Ventas" sheetId="3" r:id="rId3"/>
-    <sheet name="Articulos X Venta" sheetId="4" r:id="rId4"/>
+    <sheet name="clientes" sheetId="1" r:id="rId1"/>
+    <sheet name="productos" sheetId="2" r:id="rId2"/>
+    <sheet name="ventas" sheetId="3" r:id="rId3"/>
+    <sheet name="articulos_x_venta" sheetId="4" r:id="rId4"/>
+    <sheet name="paises" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="557">
   <si>
     <t>cliente_id</t>
   </si>
@@ -90,13 +91,1638 @@
   </si>
   <si>
     <t>articulo_id</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>jonmircha@gmail.com</t>
+  </si>
+  <si>
+    <t>Calle 19 Número 20</t>
+  </si>
+  <si>
+    <t>03100</t>
+  </si>
+  <si>
+    <t>CDMX</t>
+  </si>
+  <si>
+    <t>Irma</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>irma@gmail.com</t>
+  </si>
+  <si>
+    <t>Calle 20 Número 19</t>
+  </si>
+  <si>
+    <t>03200</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>daniel@gmail.com</t>
+  </si>
+  <si>
+    <t>Calle 9 Número 3</t>
+  </si>
+  <si>
+    <t>03300</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
+  </si>
+  <si>
+    <t>Cortés</t>
+  </si>
+  <si>
+    <t>ceci@gmail.com</t>
+  </si>
+  <si>
+    <t>Calle 1 Número 10</t>
+  </si>
+  <si>
+    <t>03400</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>Espino</t>
+  </si>
+  <si>
+    <t>nora@gmail.com</t>
+  </si>
+  <si>
+    <t>Calle 5 Número 3</t>
+  </si>
+  <si>
+    <t>03500</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Computadora</t>
+  </si>
+  <si>
+    <t>Macbook Air M2</t>
+  </si>
+  <si>
+    <t>https://images.macrumors.com/t/q-5kInZZC0CU3HsHL3HyBIHYWKQ=/1600x0/article-new/2022/06/M2-MacBook-Air-2022-Feature0012.jpg</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Motorola G9</t>
+  </si>
+  <si>
+    <t>https://s1.eestatic.com/2020/11/05/elandroidelibre/el_androide_libre_533709502_180297806_1200x675.jpg</t>
+  </si>
+  <si>
+    <t>Cámara Web</t>
+  </si>
+  <si>
+    <t>Logitech C920</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/S/aplus-media/vc/614bdd15-3677-4df6-be81-28a046f10d55._CR0,0,1464,600_PT0_SX1464__.jpg</t>
+  </si>
+  <si>
+    <t>Micrófono</t>
+  </si>
+  <si>
+    <t>Blue Yeti</t>
+  </si>
+  <si>
+    <t>https://www.coimprit.com.mx/wp-content/uploads/2021/11/988-000100-04.jpg</t>
+  </si>
+  <si>
+    <t>Audífonos</t>
+  </si>
+  <si>
+    <t>Audífonos Bose</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41jSuUHT8eL._AC_.jpg</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>pais_id</t>
+  </si>
+  <si>
+    <t>dominio</t>
+  </si>
+  <si>
+    <t>Afganistán</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Alemania</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>Anguila</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Antártida</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>Antigua y Barbuda</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Arabia Saudita</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Argelia</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Azerbaiyán</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Bélgica</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Bahrein</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Belice</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>Benín</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>Bhután</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Bielorrusia</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>Birmania</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>Bosnia y Herzegovina</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Botsuana</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Brunéi</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Camboya</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Camerún</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Chipre</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>Ciudad del Vaticano</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Comoras</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>República del Congo</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>República Democrática del Congo</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Corea del Norte</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>Corea del Sur</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>Costa de Marfil</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Croacia</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>Curazao</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>Dinamarca</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Egipto</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>Emiratos Árabes Unidos</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Eslovaquia</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Eslovenia</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Estados Unidos de América</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Etiopía</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Filipinas</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Finlandia</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>Fiyi</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Gabón</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Grecia</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Groenlandia</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Guadalupe</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Guayana Francesa</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>Guinea Ecuatorial</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>Haití</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>Hong kong</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Hungría</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Irán</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Irak</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>Irlanda</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Isla Bouvet</t>
+  </si>
+  <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>Isla de Man</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Isla de Navidad</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>Isla Norfolk</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>Islandia</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>Islas Bermudas</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Islas Caimán</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Islas Cocos (Keeling)</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Islas Cook</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Islas de Åland</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>Islas Feroe</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>Islas Georgias del Sur y Sandwich del Sur</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>Islas Heard y McDonald</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>Islas Maldivas</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>Islas Malvinas</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Islas Marianas del Norte</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Islas Marshall</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>Islas Pitcairn</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Islas Salomón</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Islas Turcas y Caicos</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Islas Ultramarinas Menores de Estados Unidos</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>Islas Vírgenes Británicas</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>Islas Vírgenes de los Estados Unidos</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>Japón</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>Jordania</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>Kazajistán</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>Kenia</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>Kirguistán</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>Líbano</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Lesoto</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Letonia</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Libia</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>Lituania</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Luxemburgo</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>Mónaco</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Macedônia</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Malasia</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Marruecos</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Martinica</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>Mauricio</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>Moldavia</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>Noruega</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Nueva Caledonia</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Nueva Zelanda</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>Omán</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Países Bajos</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Pakistán</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Palestina</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Panamá</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Papúa Nueva Guinea</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>Perú</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Polinesia Francesa</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Polonia</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Reino Unido</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>República Centroafricana</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>República Checa</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>República Dominicana</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>República de Sudán del Sur</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Reunión</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Ruanda</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Rumanía</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Rusia</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>Sahara Occidental</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>Samoa Americana</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>San Bartolomé</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>San Cristóbal y Nieves</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>San Martín (Francia)</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>San Pedro y Miquelón</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>San Vicente y las Granadinas</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>Santa Elena</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Santa Lucía</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Santo Tomé y Príncipe</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Sierra Leona</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Singapur</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>SX</t>
+  </si>
+  <si>
+    <t>Siria</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Sri lanka</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>Sudáfrica</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>Sudán</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Suecia</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Suiza</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Surinám</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Svalbard y Jan Mayen</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>Swazilandia</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>Tayikistán</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Tailandia</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Taiwán</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>Territorio Británico del Océano Índico</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>Territorios Australes y Antárticas Franceses</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>Timor Oriental</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Trinidad y Tobago</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Tunez</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Turkmenistán</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>Turquía</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Ucrania</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>Uzbekistán</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>Wallis y Futuna</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Yibuti</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>Zimbabue</t>
+  </si>
+  <si>
+    <t>ZW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,6 +1734,36 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,14 +1786,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D890B9-8954-F948-A97C-09EBD644B3E5}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,20 +2154,178 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>5512345678</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>5587654321</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>5511223344</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>5500998877</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>5523324114</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{42FD4766-A516-924F-A34D-880B6D382AB6}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{4598570E-862F-1F4E-B04D-F5437E7CAEC1}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{2569BA95-706A-EC4D-BE13-CEBF502A8444}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{78AF7A6E-91EA-5542-9BEA-61C0B57C9839}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{54BA26B2-02CD-6E41-8FA9-67778AED9E1C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C3DF36-ABD0-A945-BF50-897B4F686A16}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -522,33 +2347,209 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4">
+        <v>30000</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6500</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{81A4472B-DCAB-E24A-B9D0-C8BD5B818E55}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{B10DB3EA-555B-1E4F-ABA1-CB106D5F89AB}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{2B83BA45-35BD-4A41-B25F-350F6E2C780E}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{3EB624CF-63F8-8D47-ABF0-0F687036DB02}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FE974C-78EE-7B4F-BD7B-CD2D4C222CA2}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D2" s="4">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44849</v>
+      </c>
+      <c r="D3" s="4">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44850</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44851</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44852</v>
+      </c>
+      <c r="D6" s="4">
+        <v>42500</v>
       </c>
     </row>
   </sheetData>
@@ -558,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBE6956-69DE-EC45-8315-707343269059}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,6 +2581,2886 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E8D834-2BFB-3C45-8FDD-25AF1F89AB4B}">
+  <dimension ref="A1:C249"/>
+  <sheetViews>
+    <sheetView topLeftCell="A133" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
